--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_4_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_4_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>230663.4813657483</v>
+        <v>229951.1795427045</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167214.719915999</v>
+        <v>167214.7199159991</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058536</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,31 +1233,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.817899082923868</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3.199249640013477</v>
-      </c>
       <c r="R9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>188.4979333192471</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554826</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I11" t="n">
-        <v>47.54948955709612</v>
+        <v>62.86150506240821</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929894</v>
+        <v>16.73328122929901</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538025</v>
+        <v>49.36873040538033</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.31761724675141</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958181</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>58.13905845068102</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371297978</v>
+        <v>9.369887371298063</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>59.79289208777649</v>
+        <v>186.6423347534269</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242234</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382067</v>
+        <v>59.07980534382075</v>
       </c>
       <c r="V12" t="n">
-        <v>62.5006567623343</v>
+        <v>62.50065676233439</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394365</v>
+        <v>88.55631942394373</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640266</v>
+        <v>39.16465028640275</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095767</v>
+        <v>45.23602198095776</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256619</v>
+        <v>25.28169700256627</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311263</v>
+        <v>57.28978021311271</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725507</v>
+        <v>45.61329429725515</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5082928154977</v>
+        <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138196</v>
+        <v>66.96075103138205</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362674</v>
+        <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517459</v>
+        <v>43.77119125517467</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110048</v>
+        <v>38.99300866110056</v>
       </c>
     </row>
     <row r="14">
@@ -1613,67 +1613,67 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>155.7973716459565</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="G14" t="n">
+        <v>109.2435017034187</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>62.86150506240821</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>16.73328122929902</v>
+      </c>
+      <c r="S14" t="n">
+        <v>49.36873040538033</v>
+      </c>
+      <c r="T14" t="n">
+        <v>44.3176172467514</v>
+      </c>
+      <c r="U14" t="n">
+        <v>72.00227733958189</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>188.4979333192471</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>62.86150506240804</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>142.731519456084</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>181.6344501416381</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371297892</v>
+        <v>9.369887371298063</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1701,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390262</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693629</v>
+        <v>13.44252716693646</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242225</v>
+        <v>36.82265945242242</v>
       </c>
       <c r="U15" t="n">
-        <v>79.52233449740204</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233422</v>
+        <v>131.735752910165</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394356</v>
+        <v>88.55631942394373</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640258</v>
+        <v>39.16465028640275</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095759</v>
+        <v>45.23602198095776</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.2816970025661</v>
+        <v>25.28169700256627</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311254</v>
+        <v>57.28978021311271</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725498</v>
+        <v>45.61329429725515</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5082928154976</v>
+        <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138188</v>
+        <v>66.96075103138205</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362673</v>
+        <v>112.1624429362675</v>
       </c>
       <c r="X16" t="n">
-        <v>43.7711912551745</v>
+        <v>43.77119125517467</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110039</v>
+        <v>38.99300866110056</v>
       </c>
     </row>
     <row r="17">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390262</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>35.86489313902149</v>
+        <v>51.79611344944448</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>188.4979333192471</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
     </row>
     <row r="19">
@@ -2093,7 +2093,7 @@
         <v>105.751578713029</v>
       </c>
       <c r="G20" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H20" t="n">
         <v>49.57372768156608</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.43211268216716</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W20" t="n">
         <v>40.44879289878241</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.86945587416108</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>109.1995855683931</v>
+        <v>123.3547148889764</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>105.751578713029</v>
       </c>
       <c r="G23" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H23" t="n">
         <v>49.57372768156608</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
+        <v>167.3319418138596</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>188.4979333192471</v>
-      </c>
-      <c r="V24" t="n">
-        <v>188.4979333192471</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>153.3071381283104</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>83.62588829426485</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2676,22 +2676,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489235</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2280694968886</v>
+        <v>23.74331897288756</v>
       </c>
       <c r="V27" t="n">
-        <v>159.4111429632064</v>
+        <v>27.1641703914012</v>
       </c>
       <c r="W27" t="n">
         <v>53.21983305301055</v>
@@ -2795,22 +2795,22 @@
         <v>136.7207468571778</v>
       </c>
       <c r="D29" t="n">
-        <v>124.2874091182263</v>
+        <v>124.2874091182262</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7144991160125</v>
+        <v>189.7144991160124</v>
       </c>
       <c r="G29" t="n">
         <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147502</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444721</v>
+        <v>14.03224403444715</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818268</v>
+        <v>8.981130875818211</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864876</v>
+        <v>36.66579096864871</v>
       </c>
       <c r="V29" t="n">
         <v>107.395033085151</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4117133017659</v>
+        <v>124.4117133017658</v>
       </c>
       <c r="X29" t="n">
         <v>146.2979637707051</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8008168944489</v>
+        <v>168.8008168944488</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>44.49774663357842</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>15.80303422914048</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>214.9709236054903</v>
+        <v>1.486173081489235</v>
       </c>
       <c r="U30" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140126</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.2198330530106</v>
+        <v>53.21983305301055</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469617</v>
+        <v>3.82816391546956</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024628</v>
+        <v>9.899535610024571</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95329384217958</v>
+        <v>21.95329384217952</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632202</v>
+        <v>10.27680792632196</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456462</v>
+        <v>75.17180644456457</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044892</v>
+        <v>31.62426466044886</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533434</v>
+        <v>76.82595656533428</v>
       </c>
       <c r="X31" t="n">
-        <v>8.43470488424154</v>
+        <v>8.434704884241484</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.65652229016743</v>
+        <v>3.656522290167374</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.7747799869681</v>
+        <v>159.774779986968</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8930369903136</v>
+        <v>135.8930369903135</v>
       </c>
       <c r="D32" t="n">
-        <v>123.4596992513621</v>
+        <v>123.459699251362</v>
       </c>
       <c r="E32" t="n">
         <v>157.1664516707709</v>
       </c>
       <c r="F32" t="n">
-        <v>188.8867892491483</v>
+        <v>188.8867892491482</v>
       </c>
       <c r="G32" t="n">
-        <v>204.5257125717833</v>
+        <v>204.5257125717832</v>
       </c>
       <c r="H32" t="n">
         <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461084</v>
+        <v>26.69730882461079</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758298</v>
+        <v>13.20453416758292</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954041</v>
+        <v>8.153421008953984</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178452</v>
+        <v>35.83808110178447</v>
       </c>
       <c r="V32" t="n">
-        <v>106.5673232182868</v>
+        <v>106.5673232182867</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5840034349017</v>
+        <v>123.5840034349016</v>
       </c>
       <c r="X32" t="n">
-        <v>145.4702539038409</v>
+        <v>145.4702539038408</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.9731070275847</v>
+        <v>167.9731070275846</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>118.4584666283891</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250526</v>
+        <v>0.6584632146249956</v>
       </c>
       <c r="U33" t="n">
-        <v>103.8121097412126</v>
+        <v>22.91560910602333</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>26.33646052453696</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614636</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>3.00045404860532</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160389</v>
+        <v>9.071825743160332</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531534</v>
+        <v>21.12558397531528</v>
       </c>
       <c r="T34" t="n">
-        <v>9.449098059457782</v>
+        <v>9.449098059457725</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770038</v>
+        <v>74.34409657770033</v>
       </c>
       <c r="V34" t="n">
-        <v>30.79655479358468</v>
+        <v>30.79655479358462</v>
       </c>
       <c r="W34" t="n">
-        <v>75.9982466984701</v>
+        <v>75.99824669847004</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377301</v>
+        <v>7.606995017377244</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303191</v>
+        <v>2.828812423303134</v>
       </c>
     </row>
     <row r="35">
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3396,19 +3396,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>162.5320676116486</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>179.5571290908214</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -3588,22 +3588,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>48.47387188226646</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>111.7333896055864</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3819,10 +3819,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>91.67249554964728</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>42.23009767528362</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153549</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4053,31 +4053,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>58.18107722752529</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4107,16 +4107,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>29.00863106203687</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="C8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="D8" t="n">
         <v>6.719070557086891</v>
@@ -4805,49 +4805,49 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M8" t="n">
-        <v>3.551813413473549</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="C9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="D9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="E9" t="n">
-        <v>3.102302681225188</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="F9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="G9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J9" t="n">
         <v>0.2559399712010781</v>
@@ -4890,43 +4890,43 @@
         <v>6.590454258427762</v>
       </c>
       <c r="M9" t="n">
-        <v>9.757711402041103</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="N9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.565433267111001</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="R9" t="n">
-        <v>6.333867974168094</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="S9" t="n">
-        <v>6.333867974168094</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="T9" t="n">
-        <v>6.333867974168094</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="U9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="V9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="W9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="X9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.719070557086891</v>
       </c>
     </row>
     <row r="10">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4924514848053</v>
+        <v>439.5571809656792</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4924514848053</v>
+        <v>439.5571809656792</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4924514848053</v>
+        <v>439.5571809656792</v>
       </c>
       <c r="E11" t="n">
-        <v>614.4924514848053</v>
+        <v>439.5571809656792</v>
       </c>
       <c r="F11" t="n">
-        <v>424.0904986370811</v>
+        <v>249.1552281179549</v>
       </c>
       <c r="G11" t="n">
-        <v>233.6885457893567</v>
+        <v>249.1552281179549</v>
       </c>
       <c r="H11" t="n">
-        <v>63.10962209694999</v>
+        <v>78.57630442554807</v>
       </c>
       <c r="I11" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="J11" t="n">
-        <v>107.2091214563457</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K11" t="n">
-        <v>276.9159827430449</v>
+        <v>115.4902538590855</v>
       </c>
       <c r="L11" t="n">
-        <v>323.6368252238049</v>
+        <v>162.2110963398456</v>
       </c>
       <c r="M11" t="n">
-        <v>404.498724310752</v>
+        <v>243.0729954267927</v>
       </c>
       <c r="N11" t="n">
-        <v>479.8266174464442</v>
+        <v>318.400888562485</v>
       </c>
       <c r="O11" t="n">
-        <v>666.4395714324988</v>
+        <v>505.0138425485396</v>
       </c>
       <c r="P11" t="n">
         <v>666.4395714324988</v>
@@ -5066,25 +5066,25 @@
         <v>737.0894290049691</v>
       </c>
       <c r="S11" t="n">
-        <v>687.2220245550901</v>
+        <v>687.22202455509</v>
       </c>
       <c r="T11" t="n">
-        <v>687.2220245550901</v>
+        <v>642.4567546088764</v>
       </c>
       <c r="U11" t="n">
-        <v>614.4924514848053</v>
+        <v>642.4567546088764</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4924514848053</v>
+        <v>498.2835026330338</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4924514848053</v>
+        <v>498.2835026330338</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4924514848053</v>
+        <v>439.5571809656792</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4924514848053</v>
+        <v>439.5571809656792</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>358.8876874813743</v>
+        <v>77.5495899738233</v>
       </c>
       <c r="C12" t="n">
-        <v>349.4231547830935</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="D12" t="n">
-        <v>188.6430385441253</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="E12" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="F12" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="G12" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="J12" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142012</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998542</v>
+        <v>538.6656803998541</v>
       </c>
       <c r="O12" t="n">
         <v>670.3666200188884</v>
@@ -5145,25 +5145,25 @@
         <v>753.9917332769883</v>
       </c>
       <c r="S12" t="n">
-        <v>693.5948725822645</v>
+        <v>565.4641224149409</v>
       </c>
       <c r="T12" t="n">
-        <v>656.4002670747673</v>
+        <v>375.0621695672166</v>
       </c>
       <c r="U12" t="n">
-        <v>596.7236960204029</v>
+        <v>315.3855985128523</v>
       </c>
       <c r="V12" t="n">
-        <v>533.5917194927925</v>
+        <v>252.2536219852418</v>
       </c>
       <c r="W12" t="n">
-        <v>444.1408917918394</v>
+        <v>162.8027942842885</v>
       </c>
       <c r="X12" t="n">
-        <v>404.5806389772912</v>
+        <v>123.2425414697402</v>
       </c>
       <c r="Y12" t="n">
-        <v>358.8876874813743</v>
+        <v>77.5495899738233</v>
       </c>
     </row>
     <row r="13">
@@ -5176,70 +5176,70 @@
         <v>15.07983466553977</v>
       </c>
       <c r="C13" t="n">
-        <v>26.6540070148244</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D13" t="n">
-        <v>59.28996477815807</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E13" t="n">
-        <v>59.28996477815807</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F13" t="n">
-        <v>59.28996477815807</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G13" t="n">
-        <v>68.64297911181438</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H13" t="n">
-        <v>80.84360694523173</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I13" t="n">
-        <v>94.00595006948359</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J13" t="n">
-        <v>151.335520073941</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K13" t="n">
-        <v>261.3426212476801</v>
+        <v>118.4445227627987</v>
       </c>
       <c r="L13" t="n">
-        <v>381.4539747889289</v>
+        <v>262.9810061886387</v>
       </c>
       <c r="M13" t="n">
-        <v>381.4539747889289</v>
+        <v>262.9810061886387</v>
       </c>
       <c r="N13" t="n">
-        <v>381.4539747889289</v>
+        <v>262.9810061886387</v>
       </c>
       <c r="O13" t="n">
-        <v>520.7166611426671</v>
+        <v>402.2436925423768</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7166611426671</v>
+        <v>520.7166611426676</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426671</v>
+        <v>520.7166611426676</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633073</v>
+        <v>495.1795934633078</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015774</v>
+        <v>437.3111286015778</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578853</v>
+        <v>391.2370939578857</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604129</v>
+        <v>279.6125557604132</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064918</v>
+        <v>211.975433506492</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117114</v>
+        <v>98.68003660117131</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099479</v>
+        <v>54.46671210099488</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553977</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>426.3493397439356</v>
+        <v>379.325228690867</v>
       </c>
       <c r="C14" t="n">
-        <v>426.3493397439356</v>
+        <v>379.325228690867</v>
       </c>
       <c r="D14" t="n">
-        <v>426.3493397439356</v>
+        <v>379.325228690867</v>
       </c>
       <c r="E14" t="n">
-        <v>268.9782572732724</v>
+        <v>379.325228690867</v>
       </c>
       <c r="F14" t="n">
-        <v>268.9782572732724</v>
+        <v>188.9232758431427</v>
       </c>
       <c r="G14" t="n">
-        <v>78.57630442554813</v>
+        <v>78.57630442554806</v>
       </c>
       <c r="H14" t="n">
-        <v>78.57630442554813</v>
+        <v>78.57630442554806</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021289</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>285.1396746888282</v>
+        <v>285.1396746888279</v>
       </c>
       <c r="L14" t="n">
-        <v>331.8605171695882</v>
+        <v>331.8605171695879</v>
       </c>
       <c r="M14" t="n">
-        <v>412.7224162565354</v>
+        <v>412.722416256535</v>
       </c>
       <c r="N14" t="n">
-        <v>488.0503093922276</v>
+        <v>488.0503093922273</v>
       </c>
       <c r="O14" t="n">
-        <v>522.2709440848953</v>
+        <v>522.2709440848949</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324987</v>
+        <v>666.439571432499</v>
       </c>
       <c r="Q14" t="n">
         <v>753.9917332769883</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9917332769883</v>
+        <v>737.0894290049691</v>
       </c>
       <c r="S14" t="n">
-        <v>753.9917332769883</v>
+        <v>687.22202455509</v>
       </c>
       <c r="T14" t="n">
-        <v>753.9917332769883</v>
+        <v>642.4567546088764</v>
       </c>
       <c r="U14" t="n">
-        <v>753.9917332769883</v>
+        <v>569.7271815385914</v>
       </c>
       <c r="V14" t="n">
-        <v>609.8184813011458</v>
+        <v>569.7271815385914</v>
       </c>
       <c r="W14" t="n">
-        <v>609.8184813011458</v>
+        <v>569.7271815385914</v>
       </c>
       <c r="X14" t="n">
-        <v>426.3493397439356</v>
+        <v>569.7271815385914</v>
       </c>
       <c r="Y14" t="n">
-        <v>426.3493397439356</v>
+        <v>379.325228690867</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>378.1183742420795</v>
+        <v>198.1075712424062</v>
       </c>
       <c r="C15" t="n">
-        <v>368.6538415437988</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="D15" t="n">
-        <v>368.6538415437988</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="E15" t="n">
-        <v>195.0906376652133</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F15" t="n">
-        <v>195.0906376652133</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G15" t="n">
-        <v>195.0906376652133</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H15" t="n">
-        <v>68.08505727554243</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I15" t="n">
-        <v>68.08505727554243</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J15" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142008</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L15" t="n">
         <v>170.3760798097941</v>
@@ -5367,7 +5367,7 @@
         <v>352.0527264137995</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998541</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O15" t="n">
         <v>670.3666200188884</v>
@@ -5382,25 +5382,25 @@
         <v>747.0528889596538</v>
       </c>
       <c r="S15" t="n">
-        <v>733.4745786900212</v>
+        <v>733.4745786900211</v>
       </c>
       <c r="T15" t="n">
-        <v>696.2799731825239</v>
+        <v>696.2799731825237</v>
       </c>
       <c r="U15" t="n">
-        <v>615.9543827811077</v>
+        <v>505.8780203347994</v>
       </c>
       <c r="V15" t="n">
-        <v>552.8224062534974</v>
+        <v>372.8116032538246</v>
       </c>
       <c r="W15" t="n">
-        <v>463.3715785525443</v>
+        <v>283.3607755528714</v>
       </c>
       <c r="X15" t="n">
-        <v>423.8113257379962</v>
+        <v>243.8005227383231</v>
       </c>
       <c r="Y15" t="n">
-        <v>378.1183742420795</v>
+        <v>198.1075712424062</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.6058647187587</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C16" t="n">
-        <v>27.18003706804342</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D16" t="n">
-        <v>59.81599483137717</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E16" t="n">
-        <v>95.92339654281177</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F16" t="n">
-        <v>134.7525646580869</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G16" t="n">
-        <v>144.1055789917433</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H16" t="n">
-        <v>156.3062068251608</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I16" t="n">
-        <v>156.3062068251608</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J16" t="n">
-        <v>213.6357768296182</v>
+        <v>72.40940466999706</v>
       </c>
       <c r="K16" t="n">
-        <v>323.6428780033575</v>
+        <v>182.4165058437361</v>
       </c>
       <c r="L16" t="n">
-        <v>468.1793614291977</v>
+        <v>326.9529892695762</v>
       </c>
       <c r="M16" t="n">
-        <v>468.1793614291977</v>
+        <v>470.2946957351829</v>
       </c>
       <c r="N16" t="n">
-        <v>520.7166611426662</v>
+        <v>470.2946957351829</v>
       </c>
       <c r="O16" t="n">
-        <v>520.7166611426662</v>
+        <v>470.2946957351829</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426662</v>
+        <v>470.2946957351829</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426662</v>
+        <v>520.7166611426677</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633066</v>
+        <v>495.1795934633078</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015767</v>
+        <v>437.3111286015778</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578848</v>
+        <v>391.2370939578857</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604125</v>
+        <v>279.6125557604132</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064915</v>
+        <v>211.975433506492</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117097</v>
+        <v>98.68003660117131</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099471</v>
+        <v>54.46671210099488</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553977</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961938</v>
+        <v>463.3923242961943</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040783</v>
+        <v>410.1015905040788</v>
       </c>
       <c r="D17" t="n">
-        <v>369.369783721005</v>
+        <v>369.3697837210052</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718617</v>
+        <v>294.5907522718621</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940547</v>
+        <v>187.7709757940549</v>
       </c>
       <c r="G17" t="n">
         <v>65.15430707116208</v>
@@ -5510,55 +5510,55 @@
         <v>15.07983466553977</v>
       </c>
       <c r="I17" t="n">
-        <v>42.09409161964058</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="J17" t="n">
-        <v>228.7070456056952</v>
+        <v>257.5663113459877</v>
       </c>
       <c r="K17" t="n">
-        <v>228.7070456056952</v>
+        <v>299.2644718469074</v>
       </c>
       <c r="L17" t="n">
-        <v>275.4278880864552</v>
+        <v>345.9853143276675</v>
       </c>
       <c r="M17" t="n">
-        <v>356.2897871734024</v>
+        <v>426.8472134146147</v>
       </c>
       <c r="N17" t="n">
-        <v>431.6176803090946</v>
+        <v>502.175106550307</v>
       </c>
       <c r="O17" t="n">
-        <v>465.8383150017623</v>
+        <v>536.3957412429746</v>
       </c>
       <c r="P17" t="n">
-        <v>465.8383150017623</v>
+        <v>536.3957412429746</v>
       </c>
       <c r="Q17" t="n">
-        <v>652.4512689878169</v>
+        <v>536.3957412429746</v>
       </c>
       <c r="R17" t="n">
-        <v>753.9917332769883</v>
+        <v>637.936205532146</v>
       </c>
       <c r="S17" t="n">
-        <v>753.9917332769883</v>
+        <v>707.1675751369969</v>
       </c>
       <c r="T17" t="n">
-        <v>753.9917332769883</v>
+        <v>707.1675751369969</v>
       </c>
       <c r="U17" t="n">
         <v>753.9917332769883</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879297</v>
+        <v>730.3229325879302</v>
       </c>
       <c r="W17" t="n">
-        <v>689.465566023503</v>
+        <v>689.4655660235035</v>
       </c>
       <c r="X17" t="n">
-        <v>626.500875753077</v>
+        <v>626.5008757530775</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122028</v>
+        <v>540.8060308122033</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>336.9606627946492</v>
+        <v>123.5277239018906</v>
       </c>
       <c r="C18" t="n">
-        <v>336.9606627946492</v>
+        <v>123.5277239018906</v>
       </c>
       <c r="D18" t="n">
-        <v>336.9606627946492</v>
+        <v>123.5277239018906</v>
       </c>
       <c r="E18" t="n">
-        <v>336.9606627946492</v>
+        <v>123.5277239018906</v>
       </c>
       <c r="F18" t="n">
-        <v>176.5329465118933</v>
+        <v>123.5277239018906</v>
       </c>
       <c r="G18" t="n">
-        <v>176.5329465118933</v>
+        <v>123.5277239018906</v>
       </c>
       <c r="H18" t="n">
-        <v>176.5329465118933</v>
+        <v>123.5277239018906</v>
       </c>
       <c r="I18" t="n">
-        <v>68.08505727554243</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142008</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L18" t="n">
         <v>170.3760798097941</v>
@@ -5604,40 +5604,40 @@
         <v>352.0527264137995</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998541</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188884</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769883</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9917332769883</v>
+        <v>747.052888959654</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9917332769883</v>
+        <v>747.052888959654</v>
       </c>
       <c r="S18" t="n">
-        <v>717.7645684900979</v>
+        <v>694.7335824450636</v>
       </c>
       <c r="T18" t="n">
-        <v>717.7645684900979</v>
+        <v>694.7335824450636</v>
       </c>
       <c r="U18" t="n">
-        <v>527.3626156423736</v>
+        <v>694.7335824450636</v>
       </c>
       <c r="V18" t="n">
-        <v>336.9606627946492</v>
+        <v>504.3316295973393</v>
       </c>
       <c r="W18" t="n">
-        <v>336.9606627946492</v>
+        <v>504.3316295973393</v>
       </c>
       <c r="X18" t="n">
-        <v>336.9606627946492</v>
+        <v>313.9296767496149</v>
       </c>
       <c r="Y18" t="n">
-        <v>336.9606627946492</v>
+        <v>123.5277239018906</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961944</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040791</v>
+        <v>410.1015905040788</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210055</v>
+        <v>369.3697837210051</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718625</v>
+        <v>294.590752271862</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940551</v>
+        <v>187.7709757940549</v>
       </c>
       <c r="G20" t="n">
         <v>65.15430707116208</v>
@@ -5750,28 +5750,28 @@
         <v>70.95335735993308</v>
       </c>
       <c r="J20" t="n">
-        <v>70.95335735993308</v>
+        <v>257.5663113459877</v>
       </c>
       <c r="K20" t="n">
-        <v>70.95335735993308</v>
+        <v>326.5729645041853</v>
       </c>
       <c r="L20" t="n">
-        <v>117.6741998406931</v>
+        <v>373.2938069849453</v>
       </c>
       <c r="M20" t="n">
-        <v>198.5360989276402</v>
+        <v>454.1557060718925</v>
       </c>
       <c r="N20" t="n">
-        <v>273.8639920633325</v>
+        <v>529.4835992075848</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0846267560001</v>
+        <v>563.7042339002525</v>
       </c>
       <c r="P20" t="n">
-        <v>308.0846267560001</v>
+        <v>563.7042339002525</v>
       </c>
       <c r="Q20" t="n">
-        <v>494.6975807420548</v>
+        <v>563.7042339002525</v>
       </c>
       <c r="R20" t="n">
         <v>563.7042339002525</v>
@@ -5786,16 +5786,16 @@
         <v>753.9917332769883</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879305</v>
+        <v>730.3229325879299</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235036</v>
+        <v>689.4655660235032</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530778</v>
+        <v>626.5008757530774</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122033</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>636.7502772744083</v>
+        <v>241.648261154128</v>
       </c>
       <c r="C21" t="n">
-        <v>447.338003007372</v>
+        <v>241.648261154128</v>
       </c>
       <c r="D21" t="n">
-        <v>447.338003007372</v>
+        <v>241.648261154128</v>
       </c>
       <c r="E21" t="n">
-        <v>273.7747991287864</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="F21" t="n">
-        <v>273.7747991287864</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="G21" t="n">
-        <v>123.5277239018906</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="H21" t="n">
-        <v>123.5277239018906</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="I21" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="J21" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142008</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097941</v>
@@ -5841,10 +5841,10 @@
         <v>352.0527264137995</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998541</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188884</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P21" t="n">
         <v>753.9917332769883</v>
@@ -5856,25 +5856,25 @@
         <v>747.0528889596538</v>
       </c>
       <c r="S21" t="n">
-        <v>747.0528889596538</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="T21" t="n">
-        <v>747.0528889596538</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="U21" t="n">
-        <v>747.0528889596538</v>
+        <v>366.2489832642052</v>
       </c>
       <c r="V21" t="n">
-        <v>747.0528889596538</v>
+        <v>366.2489832642052</v>
       </c>
       <c r="W21" t="n">
-        <v>747.0528889596538</v>
+        <v>366.2489832642052</v>
       </c>
       <c r="X21" t="n">
-        <v>636.7502772744083</v>
+        <v>241.648261154128</v>
       </c>
       <c r="Y21" t="n">
-        <v>636.7502772744083</v>
+        <v>241.648261154128</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961938</v>
+        <v>463.3923242961943</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040783</v>
+        <v>410.1015905040787</v>
       </c>
       <c r="D23" t="n">
         <v>369.369783721005</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718617</v>
+        <v>294.5907522718619</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940547</v>
+        <v>187.7709757940548</v>
       </c>
       <c r="G23" t="n">
         <v>65.15430707116208</v>
@@ -5984,55 +5984,55 @@
         <v>15.07983466553977</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993308</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J23" t="n">
-        <v>209.1913801229817</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K23" t="n">
-        <v>209.1913801229817</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L23" t="n">
-        <v>255.9122226037417</v>
+        <v>61.8006771462998</v>
       </c>
       <c r="M23" t="n">
-        <v>336.7741216906888</v>
+        <v>142.662576233247</v>
       </c>
       <c r="N23" t="n">
-        <v>412.1020148263811</v>
+        <v>217.9904693689392</v>
       </c>
       <c r="O23" t="n">
-        <v>446.3226495190488</v>
+        <v>252.2111040616069</v>
       </c>
       <c r="P23" t="n">
-        <v>632.9356035051034</v>
+        <v>275.5508156250265</v>
       </c>
       <c r="Q23" t="n">
-        <v>632.9356035051034</v>
+        <v>462.1637696110811</v>
       </c>
       <c r="R23" t="n">
-        <v>632.9356035051034</v>
+        <v>563.7042339002526</v>
       </c>
       <c r="S23" t="n">
-        <v>632.9356035051034</v>
+        <v>632.9356035051035</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1675751369969</v>
+        <v>707.167575136997</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769883</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879297</v>
+        <v>730.3229325879302</v>
       </c>
       <c r="W23" t="n">
-        <v>689.465566023503</v>
+        <v>689.4655660235035</v>
       </c>
       <c r="X23" t="n">
-        <v>626.500875753077</v>
+        <v>626.5008757530775</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122028</v>
+        <v>540.8060308122032</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>218.3321325024382</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="C24" t="n">
-        <v>218.3321325024382</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="D24" t="n">
-        <v>218.3321325024382</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="E24" t="n">
-        <v>218.3321325024382</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="F24" t="n">
-        <v>218.3321325024382</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="G24" t="n">
         <v>68.08505727554243</v>
@@ -6069,7 +6069,7 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142008</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097941</v>
@@ -6078,40 +6078,40 @@
         <v>352.0527264137995</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998541</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188884</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769883</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9917332769883</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="R24" t="n">
-        <v>753.9917332769883</v>
+        <v>617.9111264193342</v>
       </c>
       <c r="S24" t="n">
-        <v>753.9917332769883</v>
+        <v>427.5091735716098</v>
       </c>
       <c r="T24" t="n">
-        <v>753.9917332769883</v>
+        <v>427.5091735716098</v>
       </c>
       <c r="U24" t="n">
-        <v>563.589780429264</v>
+        <v>258.4870101232668</v>
       </c>
       <c r="V24" t="n">
-        <v>373.1878275815397</v>
+        <v>258.4870101232668</v>
       </c>
       <c r="W24" t="n">
-        <v>373.1878275815397</v>
+        <v>258.4870101232668</v>
       </c>
       <c r="X24" t="n">
-        <v>218.3321325024382</v>
+        <v>68.08505727554243</v>
       </c>
       <c r="Y24" t="n">
-        <v>218.3321325024382</v>
+        <v>68.08505727554243</v>
       </c>
     </row>
     <row r="25">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.898422489611</v>
+        <v>1020.89842248961</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874114</v>
+        <v>882.7966579874105</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942535</v>
+        <v>757.2538204942526</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350262</v>
+        <v>597.6637583350252</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471348</v>
+        <v>406.0329511471339</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141578</v>
+        <v>198.6052517141566</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845116</v>
+        <v>63.71974859845018</v>
       </c>
       <c r="I26" t="n">
         <v>35.91669941514207</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589552</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528782</v>
+        <v>375.942782452878</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523992</v>
+        <v>634.013527952399</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581074</v>
+        <v>926.2253300581071</v>
       </c>
       <c r="N26" t="n">
         <v>1212.903126212561</v>
@@ -6251,22 +6251,22 @@
         <v>1795.834970757104</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883923</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.58913751441</v>
       </c>
       <c r="U26" t="n">
         <v>1735.552985020826</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621684</v>
+        <v>1627.073153621683</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347172</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.123159715704</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>323.3499960875688</v>
+        <v>120.3872936517732</v>
       </c>
       <c r="C27" t="n">
-        <v>323.3499960875688</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D27" t="n">
-        <v>323.3499960875688</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E27" t="n">
-        <v>323.3499960875688</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F27" t="n">
-        <v>162.9222798048129</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G27" t="n">
-        <v>162.9222798048129</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H27" t="n">
         <v>35.91669941514207</v>
@@ -6306,49 +6306,49 @@
         <v>35.91669941514207</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102239</v>
+        <v>73.8800254310224</v>
       </c>
       <c r="L27" t="n">
         <v>191.2129445593964</v>
       </c>
       <c r="M27" t="n">
-        <v>372.8895911634017</v>
+        <v>372.8895911634018</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7945675741609</v>
+        <v>577.794567574161</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931952</v>
+        <v>709.4955071931953</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512951</v>
+        <v>793.1206204512952</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512951</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512951</v>
+        <v>650.1011692763066</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512951</v>
+        <v>456.5751174379184</v>
       </c>
       <c r="T27" t="n">
-        <v>791.6194355204979</v>
+        <v>239.4327703616656</v>
       </c>
       <c r="U27" t="n">
-        <v>551.995122897378</v>
+        <v>215.4496198840014</v>
       </c>
       <c r="V27" t="n">
-        <v>390.9737663688866</v>
+        <v>188.0110639330911</v>
       </c>
       <c r="W27" t="n">
-        <v>337.2163592446336</v>
+        <v>134.253656808838</v>
       </c>
       <c r="X27" t="n">
-        <v>333.3495270067855</v>
+        <v>130.38682457099</v>
       </c>
       <c r="Y27" t="n">
-        <v>323.3499960875688</v>
+        <v>120.3872936517732</v>
       </c>
     </row>
     <row r="28">
@@ -6367,25 +6367,25 @@
         <v>35.91669941514207</v>
       </c>
       <c r="E28" t="n">
-        <v>107.0072226338004</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F28" t="n">
-        <v>107.0072226338004</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G28" t="n">
-        <v>107.0072226338004</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H28" t="n">
-        <v>107.0072226338004</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I28" t="n">
-        <v>107.0072226338004</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J28" t="n">
-        <v>199.3199141454815</v>
+        <v>121.1722914950458</v>
       </c>
       <c r="K28" t="n">
-        <v>199.3199141454815</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="L28" t="n">
         <v>266.1625141760088</v>
@@ -6440,10 +6440,10 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874113</v>
+        <v>882.7966579874111</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942534</v>
+        <v>757.2538204942533</v>
       </c>
       <c r="E29" t="n">
         <v>597.6637583350259</v>
@@ -6452,25 +6452,25 @@
         <v>406.0329511471346</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141572</v>
+        <v>198.6052517141573</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845024</v>
+        <v>63.71974859845071</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589556</v>
+        <v>171.2527996589549</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528785</v>
+        <v>375.9427824528779</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523995</v>
+        <v>634.013527952399</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581076</v>
+        <v>926.2253300581074</v>
       </c>
       <c r="N29" t="n">
         <v>1212.903126212561</v>
@@ -6482,10 +6482,10 @@
         <v>1654.882514315173</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R29" t="n">
-        <v>1795.834970757103</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="S29" t="n">
         <v>1781.660986883924</v>
@@ -6494,7 +6494,7 @@
         <v>1772.589137514411</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V29" t="n">
         <v>1627.073153621684</v>
@@ -6506,7 +6506,7 @@
         <v>1353.629035366663</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>241.291634519694</v>
+        <v>241.2916345196944</v>
       </c>
       <c r="C30" t="n">
-        <v>51.8793602526577</v>
+        <v>196.344415697898</v>
       </c>
       <c r="D30" t="n">
-        <v>51.8793602526577</v>
+        <v>196.344415697898</v>
       </c>
       <c r="E30" t="n">
-        <v>51.8793602526577</v>
+        <v>196.344415697898</v>
       </c>
       <c r="F30" t="n">
-        <v>51.8793602526577</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G30" t="n">
         <v>35.91669941514207</v>
@@ -6543,49 +6543,49 @@
         <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102239</v>
+        <v>73.8800254310224</v>
       </c>
       <c r="L30" t="n">
         <v>191.2129445593964</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8895911634017</v>
+        <v>372.8895911634018</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7945675741609</v>
+        <v>577.794567574161</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931952</v>
+        <v>709.4955071931953</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512951</v>
+        <v>793.1206204512952</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512951</v>
+        <v>793.1206204512952</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512951</v>
+        <v>793.1206204512952</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512951</v>
+        <v>793.1206204512952</v>
       </c>
       <c r="T30" t="n">
-        <v>575.9782733750422</v>
+        <v>791.619435520498</v>
       </c>
       <c r="U30" t="n">
-        <v>336.3539607519224</v>
+        <v>551.9951228973781</v>
       </c>
       <c r="V30" t="n">
-        <v>308.915404801012</v>
+        <v>308.9154048010122</v>
       </c>
       <c r="W30" t="n">
-        <v>255.1579976767589</v>
+        <v>255.1579976767591</v>
       </c>
       <c r="X30" t="n">
-        <v>251.2911654389108</v>
+        <v>251.2911654389111</v>
       </c>
       <c r="Y30" t="n">
-        <v>241.291634519694</v>
+        <v>241.2916345196944</v>
       </c>
     </row>
     <row r="31">
@@ -6616,52 +6616,52 @@
         <v>35.91669941514207</v>
       </c>
       <c r="I31" t="n">
-        <v>78.4904942749362</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J31" t="n">
-        <v>170.8031857866173</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K31" t="n">
-        <v>170.8031857866173</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="L31" t="n">
-        <v>170.8031857866173</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="M31" t="n">
-        <v>170.8031857866173</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="N31" t="n">
-        <v>170.8031857866173</v>
+        <v>112.7064240684941</v>
       </c>
       <c r="O31" t="n">
-        <v>170.8031857866173</v>
+        <v>112.7064240684941</v>
       </c>
       <c r="P31" t="n">
-        <v>170.8031857866173</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.2082727013259</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909793</v>
+        <v>243.987469890979</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239874</v>
+        <v>233.6068558239871</v>
       </c>
       <c r="U31" t="n">
-        <v>157.675738203215</v>
+        <v>157.6757382032148</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7320365259939</v>
+        <v>125.7320365259937</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737335</v>
+        <v>48.13006019737324</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389705</v>
+        <v>39.61015627389699</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91669941514207</v>
@@ -6677,43 +6677,43 @@
         <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806682</v>
+        <v>877.5242945806688</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601005</v>
+        <v>752.8175276601011</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734632</v>
+        <v>594.0635360734639</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581619</v>
+        <v>403.2687994581626</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977754</v>
+        <v>196.6771705977753</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465902</v>
+        <v>62.62773805465896</v>
       </c>
       <c r="I32" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559494</v>
+        <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3257080180679</v>
+        <v>377.3257080180681</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857846</v>
+        <v>636.2158862857848</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596883</v>
+        <v>929.2471211596886</v>
       </c>
       <c r="N32" t="n">
         <v>1216.744350082337</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.134320561961</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
         <v>1640.446650218727</v>
@@ -6722,7 +6722,7 @@
         <v>1763.801366338636</v>
       </c>
       <c r="R32" t="n">
-        <v>1783.037972197049</v>
+        <v>1783.03797219705</v>
       </c>
       <c r="S32" t="n">
         <v>1769.700058896461</v>
@@ -6734,16 +6734,16 @@
         <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.62043735199</v>
+        <v>1617.620437351991</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.788110650069</v>
+        <v>1492.78811065007</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.848460242149</v>
+        <v>1345.84846024215</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163781</v>
+        <v>1176.178655163782</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>162.6663398336118</v>
+        <v>282.3213566299645</v>
       </c>
       <c r="C33" t="n">
-        <v>162.6663398336118</v>
+        <v>282.3213566299645</v>
       </c>
       <c r="D33" t="n">
-        <v>162.6663398336118</v>
+        <v>282.3213566299645</v>
       </c>
       <c r="E33" t="n">
-        <v>162.6663398336118</v>
+        <v>282.3213566299645</v>
       </c>
       <c r="F33" t="n">
         <v>162.6663398336118</v>
@@ -6771,13 +6771,13 @@
         <v>162.6663398336118</v>
       </c>
       <c r="H33" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="I33" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J33" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="K33" t="n">
         <v>73.62408545982132</v>
@@ -6789,40 +6789,40 @@
         <v>372.6336511922007</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029598</v>
+        <v>577.5386276029599</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219941</v>
+        <v>709.2395672219942</v>
       </c>
       <c r="P33" t="n">
-        <v>792.864680480094</v>
+        <v>792.8646804800941</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.864680480094</v>
+        <v>792.8646804800941</v>
       </c>
       <c r="R33" t="n">
-        <v>792.864680480094</v>
+        <v>792.8646804800941</v>
       </c>
       <c r="S33" t="n">
-        <v>792.864680480094</v>
+        <v>792.8646804800941</v>
       </c>
       <c r="T33" t="n">
-        <v>792.1995661218868</v>
+        <v>792.199566121887</v>
       </c>
       <c r="U33" t="n">
-        <v>687.3388492115711</v>
+        <v>769.0524862168129</v>
       </c>
       <c r="V33" t="n">
-        <v>444.2591311152052</v>
+        <v>742.4500008384928</v>
       </c>
       <c r="W33" t="n">
-        <v>391.3377945635422</v>
+        <v>473.0514315687841</v>
       </c>
       <c r="X33" t="n">
-        <v>171.8298001802385</v>
+        <v>470.0206699035262</v>
       </c>
       <c r="Y33" t="n">
-        <v>162.6663398336118</v>
+        <v>460.8572095568996</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C34" t="n">
-        <v>83.03748606864494</v>
+        <v>35.660759443941</v>
       </c>
       <c r="D34" t="n">
-        <v>114.2444247475187</v>
+        <v>35.660759443941</v>
       </c>
       <c r="E34" t="n">
-        <v>114.2444247475187</v>
+        <v>107.5707154307949</v>
       </c>
       <c r="F34" t="n">
-        <v>114.2444247475187</v>
+        <v>182.2024378214893</v>
       </c>
       <c r="G34" t="n">
-        <v>114.2444247475187</v>
+        <v>182.2024378214893</v>
       </c>
       <c r="H34" t="n">
-        <v>114.2444247475187</v>
+        <v>182.2024378214893</v>
       </c>
       <c r="I34" t="n">
-        <v>114.2444247475187</v>
+        <v>182.2024378214893</v>
       </c>
       <c r="J34" t="n">
-        <v>114.2444247475187</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="K34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="L34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="M34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="N34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842374</v>
+        <v>238.7151064842371</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898356</v>
+        <v>229.1705629898353</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416534</v>
+        <v>154.0755159416532</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370224</v>
+        <v>122.9678848370222</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099199</v>
+        <v>46.20197908099188</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010583</v>
+        <v>38.51814573010578</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361097</v>
+        <v>623.0190675361099</v>
       </c>
       <c r="C35" t="n">
-        <v>544.083381551352</v>
+        <v>544.0833815513522</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756364</v>
+        <v>477.7066225756366</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338511</v>
+        <v>377.2826389338513</v>
       </c>
       <c r="F35" t="n">
         <v>244.8179102634022</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786678</v>
+        <v>96.55628934786679</v>
       </c>
       <c r="H35" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I35" t="n">
         <v>51.57576979998703</v>
@@ -6938,31 +6938,31 @@
         <v>244.9005435987449</v>
       </c>
       <c r="K35" t="n">
-        <v>502.7567448750734</v>
+        <v>244.9005435987449</v>
       </c>
       <c r="L35" t="n">
-        <v>549.4775873558334</v>
+        <v>291.621386079505</v>
       </c>
       <c r="M35" t="n">
-        <v>630.3394864427805</v>
+        <v>372.4832851664522</v>
       </c>
       <c r="N35" t="n">
-        <v>705.6673795784728</v>
+        <v>447.8111783021444</v>
       </c>
       <c r="O35" t="n">
-        <v>739.8880142711405</v>
+        <v>482.0318129948121</v>
       </c>
       <c r="P35" t="n">
-        <v>739.8880142711405</v>
+        <v>736.4293369409402</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5537443902422</v>
+        <v>850.5537443902424</v>
       </c>
       <c r="R35" t="n">
-        <v>926.959591035405</v>
+        <v>926.9595910354052</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962473</v>
+        <v>971.0563429962475</v>
       </c>
       <c r="T35" t="n">
         <v>1020.153696984132</v>
@@ -6971,16 +6971,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984142</v>
+        <v>992.5294845984145</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413453</v>
+        <v>926.0271658413455</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782772</v>
+        <v>837.4175233782775</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447608</v>
+        <v>726.077726244761</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>171.0839399764981</v>
+        <v>371.0292552556068</v>
       </c>
       <c r="C36" t="n">
-        <v>171.0839399764981</v>
+        <v>181.6169809885706</v>
       </c>
       <c r="D36" t="n">
-        <v>171.0839399764981</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="E36" t="n">
-        <v>171.0839399764981</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="F36" t="n">
-        <v>171.0839399764981</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="G36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="H36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="J36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="K36" t="n">
         <v>58.80019076548263</v>
@@ -7023,43 +7023,43 @@
         <v>176.1331098938567</v>
       </c>
       <c r="M36" t="n">
-        <v>357.809756497862</v>
+        <v>357.8097564978621</v>
       </c>
       <c r="N36" t="n">
-        <v>562.714732908621</v>
+        <v>562.7147329086212</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276554</v>
+        <v>694.4156725276555</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857552</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.0407857857552</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="R36" t="n">
-        <v>778.0407857857552</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="S36" t="n">
-        <v>778.0407857857552</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="T36" t="n">
-        <v>560.8984387095024</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="U36" t="n">
-        <v>560.8984387095024</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="V36" t="n">
-        <v>396.7246330411705</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="W36" t="n">
-        <v>396.7246330411705</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="X36" t="n">
-        <v>396.7246330411705</v>
+        <v>596.6699483202792</v>
       </c>
       <c r="Y36" t="n">
-        <v>171.0839399764981</v>
+        <v>371.0292552556068</v>
       </c>
     </row>
     <row r="37">
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="C37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="D37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="E37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="F37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="R37" t="n">
         <v>56.03780166411087</v>
@@ -7132,13 +7132,13 @@
         <v>39.27276256078069</v>
       </c>
       <c r="W37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="X37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361102</v>
+        <v>623.0190675361105</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513525</v>
+        <v>544.0833815513528</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756367</v>
+        <v>477.706622575637</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2826389338514</v>
+        <v>377.2826389338517</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634022</v>
+        <v>244.8179102634024</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786678</v>
+        <v>96.55628934786679</v>
       </c>
       <c r="H38" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I38" t="n">
         <v>51.57576979998703</v>
@@ -7178,28 +7178,28 @@
         <v>244.9005435987449</v>
       </c>
       <c r="L38" t="n">
-        <v>291.6213860795049</v>
+        <v>291.621386079505</v>
       </c>
       <c r="M38" t="n">
-        <v>372.4832851664521</v>
+        <v>372.4832851664522</v>
       </c>
       <c r="N38" t="n">
         <v>447.8111783021444</v>
       </c>
       <c r="O38" t="n">
-        <v>482.031812994812</v>
+        <v>482.0318129948121</v>
       </c>
       <c r="P38" t="n">
-        <v>670.029787483584</v>
+        <v>714.1265394444265</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5537443902422</v>
+        <v>894.6504963510847</v>
       </c>
       <c r="R38" t="n">
-        <v>926.959591035405</v>
+        <v>971.0563429962475</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0563429962473</v>
+        <v>971.0563429962475</v>
       </c>
       <c r="T38" t="n">
         <v>1020.153696984132</v>
@@ -7208,16 +7208,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984147</v>
+        <v>992.5294845984149</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413458</v>
+        <v>926.027165841346</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782777</v>
+        <v>837.4175233782779</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447614</v>
+        <v>726.0777262447616</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>471.6527242447545</v>
+        <v>69.80037170138661</v>
       </c>
       <c r="C39" t="n">
-        <v>471.6527242447545</v>
+        <v>69.80037170138661</v>
       </c>
       <c r="D39" t="n">
-        <v>471.6527242447545</v>
+        <v>69.80037170138661</v>
       </c>
       <c r="E39" t="n">
-        <v>298.0895203661689</v>
+        <v>69.80037170138661</v>
       </c>
       <c r="F39" t="n">
-        <v>298.0895203661689</v>
+        <v>69.80037170138661</v>
       </c>
       <c r="G39" t="n">
-        <v>147.8424451392731</v>
+        <v>69.80037170138661</v>
       </c>
       <c r="H39" t="n">
-        <v>20.8368647496023</v>
+        <v>69.80037170138661</v>
       </c>
       <c r="I39" t="n">
-        <v>20.8368647496023</v>
+        <v>69.80037170138661</v>
       </c>
       <c r="J39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="K39" t="n">
         <v>58.80019076548263</v>
@@ -7260,43 +7260,43 @@
         <v>176.1331098938567</v>
       </c>
       <c r="M39" t="n">
-        <v>357.809756497862</v>
+        <v>357.8097564978621</v>
       </c>
       <c r="N39" t="n">
-        <v>562.714732908621</v>
+        <v>562.7147329086212</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276554</v>
+        <v>694.4156725276555</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857552</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857552</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="R39" t="n">
-        <v>778.0407857857552</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="S39" t="n">
-        <v>584.5147339473671</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="T39" t="n">
-        <v>584.5147339473671</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="U39" t="n">
-        <v>471.6527242447545</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="V39" t="n">
-        <v>471.6527242447545</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="W39" t="n">
-        <v>471.6527242447545</v>
+        <v>514.9490591493626</v>
       </c>
       <c r="X39" t="n">
-        <v>471.6527242447545</v>
+        <v>295.441064766059</v>
       </c>
       <c r="Y39" t="n">
-        <v>471.6527242447545</v>
+        <v>69.80037170138661</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.8368647496023</v>
+        <v>29.08161847952455</v>
       </c>
       <c r="C40" t="n">
-        <v>20.8368647496023</v>
+        <v>29.08161847952455</v>
       </c>
       <c r="D40" t="n">
-        <v>20.8368647496023</v>
+        <v>29.08161847952455</v>
       </c>
       <c r="E40" t="n">
-        <v>20.8368647496023</v>
+        <v>29.08161847952455</v>
       </c>
       <c r="F40" t="n">
-        <v>20.8368647496023</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="G40" t="n">
-        <v>20.8368647496023</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078069</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078069</v>
+        <v>47.51751629070294</v>
       </c>
       <c r="W40" t="n">
-        <v>20.8368647496023</v>
+        <v>29.08161847952455</v>
       </c>
       <c r="X40" t="n">
-        <v>20.8368647496023</v>
+        <v>29.08161847952455</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.8368647496023</v>
+        <v>29.08161847952455</v>
       </c>
     </row>
     <row r="41">
@@ -7415,28 +7415,28 @@
         <v>422.5915955308618</v>
       </c>
       <c r="L41" t="n">
-        <v>469.3124380116218</v>
+        <v>469.3124380116219</v>
       </c>
       <c r="M41" t="n">
-        <v>550.1743370985689</v>
+        <v>788.7740086218904</v>
       </c>
       <c r="N41" t="n">
-        <v>679.651559789525</v>
+        <v>1102.701573280904</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4718660055139</v>
+        <v>1375.521879496893</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.130484901257</v>
+        <v>1375.521879496893</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757531</v>
+        <v>1375.521879496893</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.582478352309</v>
+        <v>1403.298774200267</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.940325262767</v>
+        <v>1403.298774200267</v>
       </c>
       <c r="T41" t="n">
         <v>1403.298774200267</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.06597548400534</v>
+        <v>759.3155385792134</v>
       </c>
       <c r="C42" t="n">
-        <v>28.06597548400534</v>
+        <v>569.903264312177</v>
       </c>
       <c r="D42" t="n">
-        <v>28.06597548400534</v>
+        <v>409.1231480732088</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06597548400534</v>
+        <v>409.1231480732088</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06597548400534</v>
+        <v>409.1231480732088</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06597548400534</v>
+        <v>316.5246677200297</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400534</v>
+        <v>189.5190873303589</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400534</v>
+        <v>81.071198094008</v>
       </c>
       <c r="J42" t="n">
         <v>28.06597548400534</v>
@@ -7524,16 +7524,16 @@
         <v>785.2698965201583</v>
       </c>
       <c r="V42" t="n">
-        <v>742.61323220169</v>
+        <v>785.2698965201583</v>
       </c>
       <c r="W42" t="n">
-        <v>473.2146629319814</v>
+        <v>759.3155385792134</v>
       </c>
       <c r="X42" t="n">
-        <v>253.7066685486777</v>
+        <v>759.3155385792134</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.06597548400534</v>
+        <v>759.3155385792134</v>
       </c>
     </row>
     <row r="43">
@@ -7546,22 +7546,22 @@
         <v>28.06597548400534</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400534</v>
+        <v>101.8730378450741</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400534</v>
+        <v>101.8730378450741</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400534</v>
+        <v>101.8730378450741</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06597548400534</v>
+        <v>101.8730378450741</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06597548400534</v>
+        <v>101.8730378450741</v>
       </c>
       <c r="H43" t="n">
-        <v>54.73839042465885</v>
+        <v>130.1336235606948</v>
       </c>
       <c r="I43" t="n">
         <v>130.1336235606948</v>
@@ -7649,31 +7649,31 @@
         <v>190.6518442323785</v>
       </c>
       <c r="K44" t="n">
-        <v>422.5915955308618</v>
+        <v>190.6518442323785</v>
       </c>
       <c r="L44" t="n">
-        <v>707.9121095349432</v>
+        <v>237.3726867131386</v>
       </c>
       <c r="M44" t="n">
-        <v>788.7740086218903</v>
+        <v>556.8342573234071</v>
       </c>
       <c r="N44" t="n">
-        <v>864.1019017575826</v>
+        <v>870.7618219824207</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4718660055144</v>
+        <v>1143.58212819841</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.130484901258</v>
+        <v>1253.513722343993</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.915536757531</v>
+        <v>1403.298774200267</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.582478352309</v>
+        <v>1403.298774200267</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.940325262767</v>
+        <v>1403.298774200267</v>
       </c>
       <c r="T44" t="n">
         <v>1403.298774200267</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>217.4782497510416</v>
+        <v>531.8870575891601</v>
       </c>
       <c r="C45" t="n">
-        <v>28.06597548400534</v>
+        <v>531.8870575891601</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06597548400534</v>
+        <v>531.8870575891601</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400534</v>
+        <v>358.3238537105746</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400534</v>
+        <v>358.3238537105746</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400534</v>
+        <v>208.0767784836788</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400534</v>
+        <v>81.071198094008</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400534</v>
+        <v>81.071198094008</v>
       </c>
       <c r="J45" t="n">
         <v>28.06597548400534</v>
@@ -7746,31 +7746,31 @@
         <v>785.2698965201583</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201583</v>
+        <v>778.3310522028239</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201583</v>
+        <v>778.3310522028239</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2698965201583</v>
+        <v>778.3310522028239</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2698965201583</v>
+        <v>561.1887051265711</v>
       </c>
       <c r="U45" t="n">
-        <v>545.6455838970385</v>
+        <v>561.1887051265711</v>
       </c>
       <c r="V45" t="n">
-        <v>545.6455838970385</v>
+        <v>561.1887051265711</v>
       </c>
       <c r="W45" t="n">
-        <v>276.2470146273298</v>
+        <v>531.8870575891601</v>
       </c>
       <c r="X45" t="n">
-        <v>276.2470146273298</v>
+        <v>531.8870575891601</v>
       </c>
       <c r="Y45" t="n">
-        <v>276.2470146273298</v>
+        <v>531.8870575891601</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.96538615316655</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="C46" t="n">
-        <v>46.96538615316655</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="D46" t="n">
-        <v>46.96538615316655</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="E46" t="n">
-        <v>46.96538615316655</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="F46" t="n">
-        <v>46.96538615316655</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="G46" t="n">
-        <v>46.96538615316655</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="H46" t="n">
-        <v>54.73839042465896</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="I46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="J46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="K46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="L46" t="n">
         <v>130.1336235606949</v>
@@ -7846,10 +7846,10 @@
         <v>28.06597548400534</v>
       </c>
       <c r="X46" t="n">
-        <v>46.96538615316655</v>
+        <v>28.06597548400534</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.96538615316655</v>
+        <v>28.06597548400534</v>
       </c>
     </row>
   </sheetData>
@@ -8538,16 +8538,16 @@
         <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
-        <v>176.6027710248758</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
-        <v>163.3068757699624</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9674182222222</v>
+        <v>177.037405250518</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>166.6480266854964</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9495,7 +9495,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786793</v>
+        <v>206.3638740786792</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247654</v>
+        <v>195.9389762247655</v>
       </c>
       <c r="C11" t="n">
-        <v>172.0572332281109</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891593</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085682</v>
+        <v>193.3306479085683</v>
       </c>
       <c r="F11" t="n">
-        <v>36.55305216769847</v>
+        <v>36.55305216769855</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033353</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>15.31201550531201</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675133</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958189</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726989</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416382</v>
+        <v>123.4953916909572</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1373032653819</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247653</v>
+        <v>195.9389762247655</v>
       </c>
       <c r="C14" t="n">
-        <v>172.0572332281108</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891593</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E14" t="n">
-        <v>37.53327626261159</v>
+        <v>193.3306479085683</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0509854869455</v>
+        <v>36.55305216769855</v>
       </c>
       <c r="G14" t="n">
-        <v>52.19197549033345</v>
+        <v>131.446407106162</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554826</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929885</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538016</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675123</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958172</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7481996726989</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1373032653819</v>
+        <v>15.63936994613496</v>
       </c>
     </row>
     <row r="15">
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.801403636316536e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934892.0267279098</v>
+        <v>934892.0267279097</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>934892.02672791</v>
+        <v>934892.0267279097</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>485062.5973470529</v>
       </c>
       <c r="C2" t="n">
-        <v>485062.5973470529</v>
+        <v>485062.5973470528</v>
       </c>
       <c r="D2" t="n">
-        <v>485342.7236455324</v>
+        <v>485342.7236455322</v>
       </c>
       <c r="E2" t="n">
-        <v>417854.4858120234</v>
+        <v>417854.4858120232</v>
       </c>
       <c r="F2" t="n">
-        <v>417854.4858120235</v>
+        <v>417854.4858120232</v>
       </c>
       <c r="G2" t="n">
+        <v>486045.2018721947</v>
+      </c>
+      <c r="H2" t="n">
+        <v>486045.2018721947</v>
+      </c>
+      <c r="I2" t="n">
         <v>486045.2018721948</v>
       </c>
-      <c r="H2" t="n">
-        <v>486045.2018721948</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>486045.2018721949</v>
+      </c>
+      <c r="K2" t="n">
         <v>486045.2018721947</v>
       </c>
-      <c r="J2" t="n">
-        <v>486045.2018721947</v>
-      </c>
-      <c r="K2" t="n">
-        <v>486045.2018721942</v>
-      </c>
       <c r="L2" t="n">
-        <v>486045.2018721939</v>
+        <v>486045.2018721941</v>
       </c>
       <c r="M2" t="n">
         <v>486045.2018721947</v>
       </c>
       <c r="N2" t="n">
-        <v>486045.2018721946</v>
+        <v>486045.2018721945</v>
       </c>
       <c r="O2" t="n">
         <v>486045.2018721945</v>
       </c>
       <c r="P2" t="n">
-        <v>486045.2018721947</v>
+        <v>486045.2018721946</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.1151787141</v>
+        <v>279126.115178714</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913316</v>
+        <v>95439.52541913329</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262454</v>
+        <v>96101.69331262469</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.3662923228</v>
+        <v>46197.36629232275</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924383</v>
+        <v>72254.91485924373</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>290416.1225000672</v>
       </c>
       <c r="F4" t="n">
-        <v>290416.1225000673</v>
+        <v>290416.1225000672</v>
       </c>
       <c r="G4" t="n">
         <v>361023.990543289</v>
@@ -26476,10 +26476,10 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.95693774779</v>
+        <v>28642.95693774778</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.9569377478</v>
+        <v>28642.95693774778</v>
       </c>
       <c r="G5" t="n">
         <v>38672.33876582418</v>
@@ -26494,16 +26494,16 @@
         <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016352</v>
       </c>
       <c r="L5" t="n">
         <v>47324.7475828481</v>
       </c>
       <c r="M5" t="n">
-        <v>40913.2955986873</v>
+        <v>40913.29559868731</v>
       </c>
       <c r="N5" t="n">
-        <v>40913.2955986873</v>
+        <v>40913.29559868731</v>
       </c>
       <c r="O5" t="n">
         <v>43797.12782887321</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47643.37740745766</v>
+        <v>47638.91102325247</v>
       </c>
       <c r="C6" t="n">
-        <v>47643.3774074576</v>
+        <v>47638.91102325235</v>
       </c>
       <c r="D6" t="n">
-        <v>46923.54072777573</v>
+        <v>46920.3476449271</v>
       </c>
       <c r="E6" t="n">
-        <v>-180330.7088045057</v>
+        <v>-180640.6666047793</v>
       </c>
       <c r="F6" t="n">
-        <v>98795.40637420825</v>
+        <v>98485.44857393477</v>
       </c>
       <c r="G6" t="n">
-        <v>-9090.652856051536</v>
+        <v>-9090.652856051769</v>
       </c>
       <c r="H6" t="n">
+        <v>86348.87256308147</v>
+      </c>
+      <c r="I6" t="n">
         <v>86348.87256308159</v>
       </c>
-      <c r="I6" t="n">
-        <v>86348.87256308147</v>
-      </c>
       <c r="J6" t="n">
-        <v>-66693.36105876137</v>
+        <v>-66693.36105876102</v>
       </c>
       <c r="K6" t="n">
-        <v>76802.92194811757</v>
+        <v>76802.92194811802</v>
       </c>
       <c r="L6" t="n">
-        <v>-19159.05175981313</v>
+        <v>-19159.05175981308</v>
       </c>
       <c r="M6" t="n">
-        <v>37966.66461796856</v>
+        <v>37966.66461796861</v>
       </c>
       <c r="N6" t="n">
-        <v>84164.03091029126</v>
+        <v>84164.03091029124</v>
       </c>
       <c r="O6" t="n">
-        <v>8638.221157143838</v>
+        <v>8638.221157143955</v>
       </c>
       <c r="P6" t="n">
-        <v>80893.13601638786</v>
+        <v>80893.1360163878</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G2" t="n">
         <v>297.4476709269845</v>
@@ -26713,7 +26713,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="L2" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M2" t="n">
         <v>272.0591682562687</v>
@@ -26814,10 +26814,10 @@
         <v>448.9587426892759</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492623</v>
+        <v>445.7594930492624</v>
       </c>
       <c r="M4" t="n">
         <v>260.4608093700288</v>
@@ -26917,10 +26917,10 @@
         <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739164</v>
+        <v>119.2994067739166</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008451</v>
+        <v>94.18534375008443</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.1271166407807</v>
+        <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540349</v>
+        <v>57.74670786540344</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929189</v>
+        <v>63.13594470929178</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003799</v>
+        <v>90.36388418003793</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>178.1482641530679</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739164</v>
+        <v>119.2994067739166</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008451</v>
+        <v>94.18534375008443</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D8" t="n">
-        <v>337.7721596422273</v>
+        <v>337.9020750954183</v>
       </c>
       <c r="E8" t="n">
         <v>371.4789120616362</v>
@@ -27877,7 +27877,7 @@
         <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
-        <v>58.59330638195257</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
         <v>16.99055923469257</v>
@@ -27938,10 +27938,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
-        <v>171.8275718397997</v>
+        <v>168.6283221997862</v>
       </c>
       <c r="F9" t="n">
-        <v>158.8234391199283</v>
+        <v>155.6241894799149</v>
       </c>
       <c r="G9" t="n">
         <v>148.9622183950918</v>
@@ -27953,7 +27953,7 @@
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>70.21701454982455</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,10 +27974,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.44843229210258</v>
+        <v>31.82978284919219</v>
       </c>
       <c r="R9" t="n">
-        <v>145.0317031582867</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
@@ -28111,10 +28111,10 @@
         <v>178.1482641530679</v>
       </c>
       <c r="J11" t="n">
-        <v>169.8415046118728</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K11" t="n">
-        <v>178.1482641530679</v>
+        <v>108.1518579983675</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,7 +28129,7 @@
         <v>153.9316356498858</v>
       </c>
       <c r="P11" t="n">
-        <v>15.09197235108886</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Q11" t="n">
         <v>178.1482641530679</v>
@@ -28172,10 +28172,10 @@
         <v>178.1482641530679</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28190,7 +28190,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390264</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,16 +28211,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161087</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R12" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>131.7978992322278</v>
+        <v>4.94845656657742</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1482641530679</v>
+        <v>26.47299028624321</v>
       </c>
       <c r="U12" t="n">
         <v>178.1482641530679</v>
@@ -28248,10 +28248,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>178.1482641530679</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>178.1482641530679</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
@@ -28260,34 +28260,34 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
+        <v>168.7007749271525</v>
+      </c>
+      <c r="H13" t="n">
+        <v>165.8243976546666</v>
+      </c>
+      <c r="I13" t="n">
+        <v>164.852968067965</v>
+      </c>
+      <c r="J13" t="n">
+        <v>120.239607582909</v>
+      </c>
+      <c r="K13" t="n">
+        <v>171.4387559950071</v>
+      </c>
+      <c r="L13" t="n">
         <v>178.1482641530679</v>
       </c>
-      <c r="H13" t="n">
-        <v>178.1482641530679</v>
-      </c>
-      <c r="I13" t="n">
-        <v>178.1482641530679</v>
-      </c>
-      <c r="J13" t="n">
-        <v>178.1482641530679</v>
-      </c>
-      <c r="K13" t="n">
-        <v>178.1482641530679</v>
-      </c>
-      <c r="L13" t="n">
-        <v>153.4764157847939</v>
-      </c>
       <c r="M13" t="n">
-        <v>25.2168653988935</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52015736928139</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O13" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="P13" t="n">
-        <v>58.47859890024891</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Q13" t="n">
         <v>127.2169859636892</v>
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>160.7168484597792</v>
+        <v>160.7168484597798</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28421,13 +28421,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I15" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T15" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U15" t="n">
-        <v>157.7057349994866</v>
+        <v>48.73013617764155</v>
       </c>
       <c r="V15" t="n">
-        <v>178.148264153068</v>
+        <v>108.9131680052373</v>
       </c>
       <c r="W15" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X15" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="16">
@@ -28482,43 +28482,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.148264153068</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>178.148264153068</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.148264153068</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>178.148264153068</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>178.148264153068</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>178.148264153068</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H16" t="n">
-        <v>178.148264153068</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I16" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="L16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="M16" t="n">
-        <v>25.21686539889349</v>
+        <v>170.0064678894053</v>
       </c>
       <c r="N16" t="n">
-        <v>69.58813687783547</v>
+        <v>16.52015736928139</v>
       </c>
       <c r="O16" t="n">
         <v>37.47888399777683</v>
@@ -28527,31 +28527,31 @@
         <v>58.4785989002489</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.2169859636892</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.148264153068</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="17">
@@ -28582,13 +28582,13 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I17" t="n">
-        <v>268.2968974519416</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J17" t="n">
         <v>265.2795522838412</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146301043</v>
+        <v>48.84654618763412</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,22 +28603,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108885</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2096703566691</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R17" t="n">
         <v>297.4476709269845</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="T17" t="n">
         <v>222.4658813998193</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="V17" t="n">
         <v>297.4476709269845</v>
@@ -28652,7 +28652,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7446044746268</v>
@@ -28664,7 +28664,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,19 +28685,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.86945587416108</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
-        <v>155.7258981809828</v>
+        <v>139.7946778705598</v>
       </c>
       <c r="T18" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>48.73013617764154</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V18" t="n">
         <v>52.15098759615518</v>
@@ -28706,10 +28706,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022354</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477855</v>
       </c>
     </row>
     <row r="19">
@@ -28752,10 +28752,10 @@
         <v>32.15181624817892</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889349</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928139</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O19" t="n">
         <v>37.47888399777683</v>
@@ -28822,10 +28822,10 @@
         <v>297.4476709269845</v>
       </c>
       <c r="J20" t="n">
-        <v>76.7816189645941</v>
+        <v>265.2795522838412</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146301043</v>
+        <v>76.43088220508648</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,13 +28840,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108885</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2096703566691</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R20" t="n">
-        <v>264.5852354411525</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S20" t="n">
         <v>297.4476709269845</v>
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28892,16 +28892,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390262</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,13 +28928,13 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757246</v>
       </c>
       <c r="T21" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280694968886</v>
+        <v>48.73013617764155</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -28943,7 +28943,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>108.1133288710775</v>
+        <v>93.9581995504942</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28989,10 +28989,10 @@
         <v>32.15181624817892</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889349</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928139</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O22" t="n">
         <v>37.47888399777683</v>
@@ -29056,37 +29056,37 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I23" t="n">
+        <v>241.0097692154761</v>
+      </c>
+      <c r="J23" t="n">
+        <v>76.78161896459409</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6.727192146301029</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>38.66743857676522</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>278.2096703566691</v>
+      </c>
+      <c r="R23" t="n">
         <v>297.4476709269845</v>
       </c>
-      <c r="J23" t="n">
-        <v>216.4159853919159</v>
-      </c>
-      <c r="K23" t="n">
-        <v>6.727192146301043</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>203.589905670336</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>89.71173703742204</v>
-      </c>
-      <c r="R23" t="n">
-        <v>194.8815453823669</v>
-      </c>
       <c r="S23" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="T23" t="n">
         <v>297.4476709269845</v>
@@ -29129,7 +29129,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
         <v>125.7355245857741</v>
@@ -29159,28 +29159,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.86945587416108</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757218</v>
       </c>
       <c r="T24" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U24" t="n">
-        <v>48.73013617764155</v>
+        <v>69.89612768302899</v>
       </c>
       <c r="V24" t="n">
-        <v>52.15098759615518</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>64.00577631116016</v>
+        <v>28.81498112022351</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29226,10 +29226,10 @@
         <v>32.15181624817892</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889349</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928139</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O25" t="n">
         <v>37.47888399777683</v>
@@ -29308,7 +29308,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="N26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240015</v>
       </c>
       <c r="O26" t="n">
         <v>213.484750524001</v>
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>103.8922632301011</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29363,13 +29363,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I27" t="n">
         <v>107.3634103439874</v>
@@ -29396,22 +29396,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.86945587416108</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>213.484750524001</v>
       </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
       <c r="V27" t="n">
-        <v>81.23777795219581</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W27" t="n">
         <v>213.484750524001</v>
@@ -29439,7 +29439,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>213.484750524001</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
@@ -29454,19 +29454,19 @@
         <v>164.852968067965</v>
       </c>
       <c r="J28" t="n">
+        <v>206.3563672595794</v>
+      </c>
+      <c r="K28" t="n">
         <v>213.484750524001</v>
       </c>
-      <c r="K28" t="n">
-        <v>67.02998013919</v>
-      </c>
       <c r="L28" t="n">
-        <v>99.66959405679231</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889349</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928139</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O28" t="n">
         <v>37.47888399777683</v>
@@ -29591,7 +29591,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>143.0204048907875</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29600,10 +29600,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>132.9415702454863</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
         <v>125.7355245857741</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.86945587416108</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R30" t="n">
         <v>134.7198007890777</v>
@@ -29642,13 +29642,13 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>213.484750524001</v>
@@ -29688,10 +29688,10 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I31" t="n">
-        <v>207.8568012596763</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J31" t="n">
-        <v>213.484750524001</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K31" t="n">
         <v>67.02998013919</v>
@@ -29700,22 +29700,22 @@
         <v>32.15181624817892</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889349</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928139</v>
+        <v>94.08553580701074</v>
       </c>
       <c r="O31" t="n">
         <v>37.47888399777683</v>
       </c>
       <c r="P31" t="n">
-        <v>58.4785989002489</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.484750524001</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R31" t="n">
-        <v>213.484750524001</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
         <v>213.484750524001</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="C32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="D32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="E32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="F32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="G32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="H32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="I32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="N32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407512</v>
       </c>
       <c r="P32" t="n">
-        <v>194.1953356407512</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="S32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="33">
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29837,7 +29837,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>40.36497249153921</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.86945587416108</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R33" t="n">
         <v>134.7198007890777</v>
@@ -29879,22 +29879,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U33" t="n">
-        <v>133.415959755676</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="34">
@@ -29907,16 +29907,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>214.3124603908652</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>176.7048105324014</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="G34" t="n">
         <v>168.7007749271525</v>
@@ -29928,19 +29928,19 @@
         <v>164.852968067965</v>
       </c>
       <c r="J34" t="n">
-        <v>120.239607582909</v>
+        <v>198.8776301841084</v>
       </c>
       <c r="K34" t="n">
-        <v>214.3124603908652</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L34" t="n">
         <v>32.15181624817892</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889349</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928139</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O34" t="n">
         <v>37.47888399777683</v>
@@ -29955,25 +29955,25 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="35">
@@ -30010,7 +30010,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="K35" t="n">
-        <v>267.1880015163298</v>
+        <v>6.727192146301029</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30025,10 +30025,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.09197235108885</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.4953028142924</v>
+        <v>204.9889162791414</v>
       </c>
       <c r="R35" t="n">
         <v>272.0591682562687</v>
@@ -30065,10 +30065,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -30077,7 +30077,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H36" t="n">
         <v>125.7355245857741</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.86945587416108</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R36" t="n">
         <v>134.7198007890777</v>
@@ -30116,19 +30116,19 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>78.1168533037536</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>37.75578534864923</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30156,7 +30156,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>204.2572768609995</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H37" t="n">
         <v>165.8243976546666</v>
@@ -30174,10 +30174,10 @@
         <v>32.15181624817892</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889349</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928139</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O37" t="n">
         <v>37.47888399777683</v>
@@ -30189,7 +30189,7 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R37" t="n">
-        <v>203.4299611556341</v>
+        <v>238.9864630894812</v>
       </c>
       <c r="S37" t="n">
         <v>235.4380443661806</v>
@@ -30247,7 +30247,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="K38" t="n">
-        <v>6.727192146301043</v>
+        <v>6.727192146301029</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>204.9889162791413</v>
+        <v>249.531089976962</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0591682562687</v>
@@ -30271,7 +30271,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0591682562687</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T38" t="n">
         <v>272.0591682562687</v>
@@ -30308,22 +30308,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390262</v>
+        <v>4.001298501636164</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,31 +30344,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.86945587416108</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R39" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>125.4946798913022</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243774206982778</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30390,13 +30390,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>147.5332310804749</v>
       </c>
       <c r="G40" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H40" t="n">
-        <v>201.3808995885136</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I40" t="n">
         <v>164.852968067965</v>
@@ -30411,10 +30411,10 @@
         <v>32.15181624817892</v>
       </c>
       <c r="M40" t="n">
-        <v>25.21686539889349</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928139</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O40" t="n">
         <v>37.47888399777683</v>
@@ -30438,7 +30438,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="W40" t="n">
         <v>272.0591682562687</v>
@@ -30490,28 +30490,28 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="N41" t="n">
-        <v>54.69629248006444</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="O41" t="n">
         <v>241.0097692154761</v>
       </c>
       <c r="P41" t="n">
-        <v>241.0097692154761</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.0097692154761</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R41" t="n">
-        <v>241.0097692154761</v>
+        <v>222.9390147797143</v>
       </c>
       <c r="S41" t="n">
-        <v>241.0097692154761</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T41" t="n">
-        <v>241.0097692154761</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U41" t="n">
         <v>241.0097692154761</v>
@@ -30539,10 +30539,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -30551,16 +30551,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446044746268</v>
+        <v>57.07210892497953</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390262</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.86945587416108</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890777</v>
@@ -30596,16 +30596,16 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>198.4188232401186</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30618,7 +30618,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>166.4571809719723</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="D43" t="n">
         <v>145.1826502507107</v>
@@ -30633,10 +30633,10 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H43" t="n">
-        <v>192.7662309280539</v>
+        <v>194.3704438320613</v>
       </c>
       <c r="I43" t="n">
-        <v>241.0097692154761</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
         <v>120.239607582909</v>
@@ -30648,10 +30648,10 @@
         <v>32.15181624817892</v>
       </c>
       <c r="M43" t="n">
-        <v>25.21686539889349</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928139</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O43" t="n">
         <v>37.47888399777683</v>
@@ -30721,34 +30721,34 @@
         <v>241.0097692154761</v>
       </c>
       <c r="K44" t="n">
+        <v>6.727192146301029</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>241.0097692154761</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>241.0097692154761</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
       <c r="O44" t="n">
-        <v>54.69629248006476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="P44" t="n">
-        <v>241.0097692154761</v>
+        <v>126.1339866395571</v>
       </c>
       <c r="Q44" t="n">
         <v>241.0097692154761</v>
       </c>
       <c r="R44" t="n">
-        <v>241.0097692154761</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S44" t="n">
-        <v>241.0097692154761</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T44" t="n">
-        <v>241.0097692154761</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U44" t="n">
         <v>241.0097692154761</v>
@@ -30773,31 +30773,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>118.5694171701404</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390262</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.86945587416108</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890777</v>
@@ -30827,16 +30827,16 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>237.6959525149747</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30870,10 +30870,10 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H46" t="n">
-        <v>173.6759171208205</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I46" t="n">
-        <v>241.0097692154761</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J46" t="n">
         <v>120.239607582909</v>
@@ -30882,13 +30882,13 @@
         <v>67.02998013919</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817892</v>
+        <v>135.2504506690775</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889349</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928139</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O46" t="n">
         <v>37.47888399777683</v>
@@ -30918,7 +30918,7 @@
         <v>241.0097692154761</v>
       </c>
       <c r="X46" t="n">
-        <v>241.0097692154761</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631727</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501023</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645936</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246047</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727843</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M11" t="n">
-        <v>71.4163207803285</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401886</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556006</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521923</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.9210906617881</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318167</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610806</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168789</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705381</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650128</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122624</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729608</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884579</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000165</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L12" t="n">
-        <v>47.2498997044757</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M12" t="n">
-        <v>55.1384043213324</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427541</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134013</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862161</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795497</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R12" t="n">
         <v>13.51115200922247</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935652</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971346</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375085</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.182440200792497</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773293</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014368</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600452</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309186</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O13" t="n">
-        <v>25.7870931083795</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221255</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545173</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542638</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629243</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679418</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00995128367959076</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I17" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645937</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246048</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032852</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401889</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556009</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521925</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178811</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R17" t="n">
         <v>25.54857067318168</v>
       </c>
       <c r="S17" t="n">
-        <v>9.26811221961081</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T17" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705382</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,28 +32309,28 @@
         <v>2.101692337122625</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729611</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J18" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447572</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133242</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427544</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134014</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862163</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q18" t="n">
         <v>27.77822605795498</v>
@@ -32339,13 +32339,13 @@
         <v>13.51115200922247</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935653</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971349</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375085</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,43 +32388,43 @@
         <v>1.622059239773294</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014369</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600453</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837951</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221255</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q19" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542641</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629244</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T19" t="n">
-        <v>0.779517221567942</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590762</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I20" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645937</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246048</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032852</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401889</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556009</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521925</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178811</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R20" t="n">
         <v>25.54857067318168</v>
       </c>
       <c r="S20" t="n">
-        <v>9.26811221961081</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T20" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705382</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,28 +32546,28 @@
         <v>2.101692337122625</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729611</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J21" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447572</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133242</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427544</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134014</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862163</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q21" t="n">
         <v>27.77822605795498</v>
@@ -32576,13 +32576,13 @@
         <v>13.51115200922247</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935653</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971349</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431670529375085</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,43 +32625,43 @@
         <v>1.622059239773294</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014369</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600453</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837951</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221255</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q22" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542641</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629244</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T22" t="n">
-        <v>0.779517221567942</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590762</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I23" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645937</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246048</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032852</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401889</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556009</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521925</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178811</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R23" t="n">
         <v>25.54857067318168</v>
       </c>
       <c r="S23" t="n">
-        <v>9.26811221961081</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T23" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705382</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,28 +32783,28 @@
         <v>2.101692337122625</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729611</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J24" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447572</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133242</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427544</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134014</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862163</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q24" t="n">
         <v>27.77822605795498</v>
@@ -32813,13 +32813,13 @@
         <v>13.51115200922247</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935653</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971349</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431670529375085</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,43 +32862,43 @@
         <v>1.622059239773294</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014369</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600453</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837951</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221255</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q25" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542641</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629244</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T25" t="n">
-        <v>0.779517221567942</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590762</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I26" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645937</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246048</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032852</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401889</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556009</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521925</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178811</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R26" t="n">
         <v>25.54857067318168</v>
       </c>
       <c r="S26" t="n">
-        <v>9.26811221961081</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T26" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705382</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,28 +33020,28 @@
         <v>2.101692337122625</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729611</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J27" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447572</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133242</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427544</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134014</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862163</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q27" t="n">
         <v>27.77822605795498</v>
@@ -33050,13 +33050,13 @@
         <v>13.51115200922247</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935653</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971349</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431670529375085</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,43 +33099,43 @@
         <v>1.622059239773294</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014369</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600453</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837951</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221255</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q28" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542641</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629244</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T28" t="n">
-        <v>0.779517221567942</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590762</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I29" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645937</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246048</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032852</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401889</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556009</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521925</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178811</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R29" t="n">
         <v>25.54857067318168</v>
       </c>
       <c r="S29" t="n">
-        <v>9.26811221961081</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T29" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705382</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,28 +33257,28 @@
         <v>2.101692337122625</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729611</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J30" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447572</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133242</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427544</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134014</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862163</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q30" t="n">
         <v>27.77822605795498</v>
@@ -33287,13 +33287,13 @@
         <v>13.51115200922247</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935653</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971349</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375085</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,43 +33336,43 @@
         <v>1.622059239773294</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014369</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600453</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837951</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221255</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q31" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542641</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629244</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T31" t="n">
-        <v>0.779517221567942</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590762</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I32" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51977792645937</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246048</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M32" t="n">
-        <v>71.41632078032852</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401889</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556009</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P32" t="n">
-        <v>58.48671957521925</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178811</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R32" t="n">
         <v>25.54857067318168</v>
       </c>
       <c r="S32" t="n">
-        <v>9.26811221961081</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T32" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705382</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,28 +33494,28 @@
         <v>2.101692337122625</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729611</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J33" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447572</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133242</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427544</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134014</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862163</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q33" t="n">
         <v>27.77822605795498</v>
@@ -33524,13 +33524,13 @@
         <v>13.51115200922247</v>
       </c>
       <c r="S33" t="n">
-        <v>4.042083127935653</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971349</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431670529375085</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,43 +33573,43 @@
         <v>1.622059239773294</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014369</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L34" t="n">
-        <v>27.12388221600453</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837951</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221255</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q34" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542641</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S34" t="n">
-        <v>3.179435135629244</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T34" t="n">
-        <v>0.779517221567942</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590762</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I35" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51977792645937</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246048</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M35" t="n">
-        <v>71.41632078032852</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401889</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556009</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P35" t="n">
-        <v>58.48671957521925</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178811</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R35" t="n">
         <v>25.54857067318168</v>
       </c>
       <c r="S35" t="n">
-        <v>9.26811221961081</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T35" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705382</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,28 +33731,28 @@
         <v>2.101692337122625</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729611</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J36" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447572</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133242</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427544</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134014</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862163</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q36" t="n">
         <v>27.77822605795498</v>
@@ -33761,13 +33761,13 @@
         <v>13.51115200922247</v>
       </c>
       <c r="S36" t="n">
-        <v>4.042083127935653</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971349</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431670529375085</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,43 +33810,43 @@
         <v>1.622059239773294</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014369</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L37" t="n">
-        <v>27.12388221600453</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837951</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221255</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q37" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542641</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S37" t="n">
-        <v>3.179435135629244</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T37" t="n">
-        <v>0.779517221567942</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590762</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I38" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51977792645937</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246048</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M38" t="n">
-        <v>71.41632078032852</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401889</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556009</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P38" t="n">
-        <v>58.48671957521925</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178811</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R38" t="n">
         <v>25.54857067318168</v>
       </c>
       <c r="S38" t="n">
-        <v>9.26811221961081</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T38" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705382</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,28 +33968,28 @@
         <v>2.101692337122625</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729611</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J39" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447572</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133242</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427544</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134014</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862163</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q39" t="n">
         <v>27.77822605795498</v>
@@ -33998,13 +33998,13 @@
         <v>13.51115200922247</v>
       </c>
       <c r="S39" t="n">
-        <v>4.042083127935653</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971349</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431670529375085</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,43 +34047,43 @@
         <v>1.622059239773294</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014369</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L40" t="n">
-        <v>27.12388221600453</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837951</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221255</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q40" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542641</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S40" t="n">
-        <v>3.179435135629244</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T40" t="n">
-        <v>0.779517221567942</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590762</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I41" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51977792645937</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246048</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M41" t="n">
-        <v>71.41632078032852</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401889</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556009</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48671957521925</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178811</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R41" t="n">
         <v>25.54857067318168</v>
       </c>
       <c r="S41" t="n">
-        <v>9.26811221961081</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T41" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705382</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,28 +34205,28 @@
         <v>2.101692337122625</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729611</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J42" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447572</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133242</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427544</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134014</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862163</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q42" t="n">
         <v>27.77822605795498</v>
@@ -34235,13 +34235,13 @@
         <v>13.51115200922247</v>
       </c>
       <c r="S42" t="n">
-        <v>4.042083127935653</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971349</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431670529375085</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,43 +34284,43 @@
         <v>1.622059239773294</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014369</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L43" t="n">
-        <v>27.12388221600453</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837951</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221255</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q43" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542641</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629244</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T43" t="n">
-        <v>0.779517221567942</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590762</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631728</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217844</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I44" t="n">
         <v>15.68003933501024</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645937</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246048</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727844</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032852</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401889</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556009</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521925</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178811</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R44" t="n">
         <v>25.54857067318168</v>
       </c>
       <c r="S44" t="n">
-        <v>9.26811221961081</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T44" t="n">
         <v>1.78041300016879</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705382</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,28 +34442,28 @@
         <v>2.101692337122625</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729611</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J45" t="n">
-        <v>20.5597432488458</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000166</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447572</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133242</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427544</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134014</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862163</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q45" t="n">
         <v>27.77822605795498</v>
@@ -34472,13 +34472,13 @@
         <v>13.51115200922247</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935653</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971349</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431670529375085</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,43 +34521,43 @@
         <v>1.622059239773294</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014369</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89852219602954</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752829</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600453</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786388</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309187</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837951</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06531301221255</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q46" t="n">
         <v>15.27687899545174</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542641</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629244</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T46" t="n">
-        <v>0.779517221567942</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590762</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35152,7 +35152,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1299154531910392</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.069987028295762</v>
+      </c>
+      <c r="P9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.069987028295762</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>93.0598856472787</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>171.4210720067669</v>
+        <v>101.4246658520664</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258586</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641126</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514367</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O11" t="n">
         <v>188.4979333192471</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>163.056291801979</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.4365271156459</v>
+        <v>88.43652711564584</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543466</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L12" t="n">
-        <v>118.5181001296707</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M12" t="n">
-        <v>183.51176424647</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192471</v>
+        <v>188.497933319247</v>
       </c>
       <c r="O12" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P12" t="n">
-        <v>84.469811371818</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35544,10 +35544,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69108318109559</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.96561390235723</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -35556,22 +35556,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.447489225915474</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.32386649840136</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13.29529608510289</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.90865657015896</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>111.1182840138779</v>
+        <v>104.4087758558171</v>
       </c>
       <c r="L13" t="n">
-        <v>121.324599536615</v>
+        <v>145.996447904889</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35580,10 +35580,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>140.6693801552911</v>
+        <v>140.669380155291</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>119.669665252819</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884739</v>
+        <v>101.3666451884738</v>
       </c>
       <c r="K14" t="n">
-        <v>171.421072006767</v>
+        <v>171.4210720067668</v>
       </c>
       <c r="L14" t="n">
         <v>47.19277018258587</v>
@@ -35662,10 +35662,10 @@
         <v>34.56629766936126</v>
       </c>
       <c r="P14" t="n">
-        <v>145.6248761086903</v>
+        <v>145.6248761086909</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564599</v>
+        <v>88.43652711564582</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35778,43 +35778,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5313434880999353</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.69108318109568</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.96561390235732</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>36.47212294084304</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.22138193462138</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.447489225915559</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>12.32386649840144</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90865657015905</v>
+        <v>57.90865657015888</v>
       </c>
       <c r="K16" t="n">
-        <v>111.118284013878</v>
+        <v>111.1182840138779</v>
       </c>
       <c r="L16" t="n">
-        <v>145.9964479048891</v>
+        <v>145.9964479048889</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>144.7896024905118</v>
       </c>
       <c r="N16" t="n">
-        <v>53.06797950855408</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.93127818937862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>27.28712823646547</v>
+        <v>56.4379017115084</v>
       </c>
       <c r="J17" t="n">
         <v>188.4979333192471</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>42.11935404133309</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258587</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641128</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N17" t="n">
-        <v>76.0887809451437</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936126</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>102.5661255446176</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.93067636853628</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>47.29712943433472</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543467</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M18" t="n">
-        <v>183.51176424647</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N18" t="n">
         <v>188.4979333192471</v>
@@ -36118,31 +36118,31 @@
         <v>56.4379017115084</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>69.70369005878545</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258587</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641128</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N20" t="n">
-        <v>76.0887809451437</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936126</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.70369005878557</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>69.93067636853628</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543467</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M21" t="n">
-        <v>183.51176424647</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N21" t="n">
         <v>188.4979333192471</v>
@@ -36215,7 +36215,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181803</v>
+        <v>84.46981137181794</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,37 +36352,37 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.4379017115084</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>139.6343664273218</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258587</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641128</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N23" t="n">
-        <v>76.0887809451437</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936126</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P23" t="n">
+        <v>23.57546622567639</v>
+      </c>
+      <c r="Q23" t="n">
         <v>188.4979333192471</v>
       </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.93067636853628</v>
       </c>
       <c r="T23" t="n">
         <v>74.98178952716522</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543467</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M24" t="n">
-        <v>183.51176424647</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N24" t="n">
         <v>188.4979333192471</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K26" t="n">
         <v>206.7575583777</v>
       </c>
       <c r="L26" t="n">
-        <v>260.6775207065869</v>
+        <v>260.677520706587</v>
       </c>
       <c r="M26" t="n">
         <v>295.1634364704123</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691452</v>
       </c>
       <c r="O26" t="n">
         <v>248.0510481933623</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543467</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M27" t="n">
-        <v>183.51176424647</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N27" t="n">
-        <v>206.9747236472314</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O27" t="n">
         <v>133.0312521404387</v>
@@ -36735,7 +36735,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.80860931177605</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.24514294109207</v>
+        <v>86.11675967667045</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>146.454770384811</v>
       </c>
       <c r="L28" t="n">
-        <v>67.51777780861339</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K29" t="n">
         <v>206.7575583777</v>
       </c>
       <c r="L29" t="n">
-        <v>260.6775207065868</v>
+        <v>260.677520706587</v>
       </c>
       <c r="M29" t="n">
         <v>295.1634364704123</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5735314691447</v>
+        <v>289.5735314691448</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933622</v>
+        <v>248.0510481933623</v>
       </c>
       <c r="P29" t="n">
-        <v>198.3927781729121</v>
+        <v>198.3927781729122</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.7730134865789</v>
+        <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163411</v>
+        <v>18.60320514163417</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543467</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M30" t="n">
-        <v>183.51176424647</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9747236472314</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O30" t="n">
         <v>133.0312521404387</v>
@@ -36984,10 +36984,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>43.00383319171124</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.24514294109201</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36999,19 +36999,19 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>77.56537843772936</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0061516237521</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.26776456031175</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.05478936836686</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262711</v>
+        <v>137.5308414262712</v>
       </c>
       <c r="K32" t="n">
         <v>207.5852682445642</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734511</v>
+        <v>261.5052305734512</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372765</v>
+        <v>295.9911463372766</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4012413360089</v>
+        <v>290.401241336009</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602265</v>
+        <v>228.7616333101125</v>
       </c>
       <c r="P32" t="n">
-        <v>179.1033632896624</v>
+        <v>199.2204880397765</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6007233534432</v>
+        <v>124.6007233534433</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849835</v>
+        <v>19.43091500849841</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543467</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L33" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M33" t="n">
-        <v>183.51176424647</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9747236472314</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O33" t="n">
         <v>133.0312521404387</v>
@@ -37203,16 +37203,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.85527941889288</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>31.52216028169065</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>72.63631917864029</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>75.38557817241863</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.63802260119942</v>
       </c>
       <c r="K34" t="n">
-        <v>147.2824802516752</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>195.2775492916746</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4608093700288</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258587</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641128</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N35" t="n">
-        <v>76.0887809451437</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O35" t="n">
-        <v>34.56629766936126</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>256.9671959051799</v>
       </c>
       <c r="Q35" t="n">
-        <v>111.7835657768704</v>
+        <v>115.2771792417194</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390184</v>
+        <v>77.17762287390185</v>
       </c>
       <c r="S35" t="n">
         <v>44.54217369782053</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543467</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L36" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M36" t="n">
-        <v>183.51176424647</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N36" t="n">
-        <v>206.9747236472314</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O36" t="n">
         <v>133.0312521404387</v>
@@ -37452,40 +37452,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37546,28 +37546,28 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.19277018258587</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M38" t="n">
-        <v>81.67868594641128</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N38" t="n">
-        <v>76.0887809451437</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O38" t="n">
-        <v>34.56629766936126</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P38" t="n">
-        <v>189.8969439280525</v>
+        <v>234.4391176258732</v>
       </c>
       <c r="Q38" t="n">
         <v>182.3474312188467</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17762287390184</v>
+        <v>77.17762287390185</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54217369782053</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>49.59328685644947</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543467</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L39" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M39" t="n">
-        <v>183.51176424647</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N39" t="n">
-        <v>206.9747236472314</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O39" t="n">
         <v>133.0312521404387</v>
@@ -37686,13 +37686,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>8.606348862028231</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>26.95015307181882</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37783,31 +37783,31 @@
         <v>234.2825770691751</v>
       </c>
       <c r="L41" t="n">
-        <v>47.19277018258587</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M41" t="n">
-        <v>81.67868594641128</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N41" t="n">
-        <v>130.7850734252081</v>
+        <v>317.0985501606198</v>
       </c>
       <c r="O41" t="n">
         <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643872</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2980321780541</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310922</v>
+        <v>28.05746939734743</v>
       </c>
       <c r="S41" t="n">
-        <v>13.4927746570279</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565684</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543467</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L42" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M42" t="n">
-        <v>183.51176424647</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N42" t="n">
-        <v>206.9747236472314</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O42" t="n">
         <v>133.0312521404387</v>
@@ -37914,7 +37914,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>74.55258824350375</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -37929,10 +37929,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>26.94183327338738</v>
+        <v>28.54604617739468</v>
       </c>
       <c r="I43" t="n">
-        <v>76.15680114751105</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>164.228150250882</v>
       </c>
       <c r="K44" t="n">
-        <v>234.282577069175</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>288.202539398062</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M44" t="n">
-        <v>81.67868594641128</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N44" t="n">
-        <v>76.0887809451437</v>
+        <v>317.0985501606198</v>
       </c>
       <c r="O44" t="n">
-        <v>89.26259014942602</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643872</v>
+        <v>111.0420142884683</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.298032178054</v>
+        <v>151.2980321780541</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310919</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702788</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565681</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543467</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L45" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M45" t="n">
-        <v>183.51176424647</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N45" t="n">
-        <v>206.9747236472314</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O45" t="n">
         <v>133.0312521404387</v>
@@ -38166,10 +38166,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>7.851519466153951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>76.15680114751102</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>103.0986344208985</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>19.09031380723354</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
